--- a/excel2json/excel/SkillConfig.xlsx
+++ b/excel2json/excel/SkillConfig.xlsx
@@ -13,8 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>aaa</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>aaa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：箭头
+2：圆圈</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -28,6 +61,24 @@
     <t>图标</t>
   </si>
   <si>
+    <t>施法范围</t>
+  </si>
+  <si>
+    <t>指向型</t>
+  </si>
+  <si>
+    <t>方向型</t>
+  </si>
+  <si>
+    <t>瞬发型</t>
+  </si>
+  <si>
+    <t>选择指示器类别</t>
+  </si>
+  <si>
+    <t>作用范围</t>
+  </si>
+  <si>
     <t>*Id#int</t>
   </si>
   <si>
@@ -38,6 +89,24 @@
   </si>
   <si>
     <t>icon</t>
+  </si>
+  <si>
+    <t>range#int</t>
+  </si>
+  <si>
+    <t>point#int</t>
+  </si>
+  <si>
+    <t>dir#int</t>
+  </si>
+  <si>
+    <t>needTarget#int</t>
+  </si>
+  <si>
+    <t>indicator#int</t>
+  </si>
+  <si>
+    <t>effectRange#int</t>
   </si>
   <si>
     <t>突进</t>
@@ -81,12 +150,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +167,74 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,15 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,82 +264,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,20 +301,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -255,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,17 +522,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,9 +572,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,46 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,148 +624,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -700,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,19 +1124,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,80 +1153,177 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel2json/excel/SkillConfig.xlsx
+++ b/excel2json/excel/SkillConfig.xlsx
@@ -19,7 +19,7 @@
     <author>aaa</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,8 +37,36 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1：箭头
-2：圆圈</t>
+1.Aoe
+2.方向型
+3.选择型
+4.瞬发型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>aaa:
+0：无</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：前
+2：后
+3：左
+4：右</t>
         </r>
       </text>
     </comment>
@@ -47,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>编号</t>
   </si>
@@ -64,21 +92,30 @@
     <t>施法范围</t>
   </si>
   <si>
-    <t>指向型</t>
-  </si>
-  <si>
-    <t>方向型</t>
-  </si>
-  <si>
-    <t>瞬发型</t>
-  </si>
-  <si>
-    <t>选择指示器类别</t>
+    <t>技能类型</t>
   </si>
   <si>
     <t>作用范围</t>
   </si>
   <si>
+    <t>角色位移方向</t>
+  </si>
+  <si>
+    <t>角色位移距离</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>施法动画</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
     <t>*Id#int</t>
   </si>
   <si>
@@ -94,21 +131,30 @@
     <t>range#int</t>
   </si>
   <si>
-    <t>point#int</t>
-  </si>
-  <si>
-    <t>dir#int</t>
-  </si>
-  <si>
-    <t>needTarget#int</t>
-  </si>
-  <si>
-    <t>indicator#int</t>
+    <t>type#int</t>
   </si>
   <si>
     <t>effectRange#int</t>
   </si>
   <si>
+    <t>roleMoveDir#int</t>
+  </si>
+  <si>
+    <t>roleMoveDis#int</t>
+  </si>
+  <si>
+    <t>damage#int</t>
+  </si>
+  <si>
+    <t>lowerSpeed#int</t>
+  </si>
+  <si>
+    <t>anim</t>
+  </si>
+  <si>
+    <t>vfx#[]</t>
+  </si>
+  <si>
     <t>突进</t>
   </si>
   <si>
@@ -118,6 +164,12 @@
     <t>skill1000</t>
   </si>
   <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
     <t>冰冻</t>
   </si>
   <si>
@@ -127,6 +179,9 @@
     <t>skill1001</t>
   </si>
   <si>
+    <t>frozon</t>
+  </si>
+  <si>
     <t>后撤</t>
   </si>
   <si>
@@ -136,6 +191,9 @@
     <t>skill1002</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>闪现</t>
   </si>
   <si>
@@ -143,6 +201,9 @@
   </si>
   <si>
     <t>skill1003</t>
+  </si>
+  <si>
+    <t>flash</t>
   </si>
 </sst>
 </file>
@@ -150,8 +211,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -171,38 +232,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +308,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -224,9 +346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,75 +355,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,13 +389,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +509,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,157 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +580,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,20 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,30 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,23 +1185,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,153 +1234,219 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>5</v>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/SkillConfig.xlsx
+++ b/excel2json/excel/SkillConfig.xlsx
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>编号</t>
   </si>
@@ -95,6 +95,9 @@
     <t>技能类型</t>
   </si>
   <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
     <t>作用范围</t>
   </si>
   <si>
@@ -104,10 +107,7 @@
     <t>角色位移距离</t>
   </si>
   <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>减速</t>
+    <t>buffId</t>
   </si>
   <si>
     <t>施法动画</t>
@@ -134,6 +134,9 @@
     <t>type#int</t>
   </si>
   <si>
+    <t>cd</t>
+  </si>
+  <si>
     <t>effectRange#int</t>
   </si>
   <si>
@@ -143,10 +146,7 @@
     <t>roleMoveDis#int</t>
   </si>
   <si>
-    <t>damage#int</t>
-  </si>
-  <si>
-    <t>lowerSpeed#int</t>
+    <t>buffId#[]</t>
   </si>
   <si>
     <t>anim</t>
@@ -167,7 +167,7 @@
     <t>idle</t>
   </si>
   <si>
-    <t>forward</t>
+    <t>fire</t>
   </si>
   <si>
     <t>冰冻</t>
@@ -179,6 +179,9 @@
     <t>skill1001</t>
   </si>
   <si>
+    <t>1001|1002</t>
+  </si>
+  <si>
     <t>frozon</t>
   </si>
   <si>
@@ -191,9 +194,6 @@
     <t>skill1002</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>闪现</t>
   </si>
   <si>
@@ -203,7 +203,19 @@
     <t>skill1003</t>
   </si>
   <si>
-    <t>flash</t>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>向周围产生一次爆炸，并伤害</t>
+  </si>
+  <si>
+    <t>skill1004</t>
+  </si>
+  <si>
+    <t>1002|1002</t>
+  </si>
+  <si>
+    <t>firework</t>
   </si>
 </sst>
 </file>
@@ -211,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -226,6 +238,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,14 +259,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +312,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,92 +351,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -379,6 +386,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,19 +401,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,49 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,109 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,11 +613,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,32 +673,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,21 +692,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,145 +700,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,21 +1197,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="23.125" customWidth="1"/>
-    <col min="11" max="12" width="16.125" customWidth="1"/>
+    <col min="5" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="23.125" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
     <col min="13" max="13" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1305,16 +1317,16 @@
         <v>4</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1346,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1357,14 +1369,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>2</v>
+      <c r="K4" t="s">
+        <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1372,13 +1384,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1387,16 +1399,16 @@
         <v>4</v>
       </c>
       <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1405,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1428,16 +1440,16 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1446,7 +1458,48 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/SkillConfig.xlsx
+++ b/excel2json/excel/SkillConfig.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>编号</t>
   </si>
@@ -170,6 +170,87 @@
     <t>fire</t>
   </si>
   <si>
+    <t>后撤</t>
+  </si>
+  <si>
+    <t>后撤5米</t>
+  </si>
+  <si>
+    <t>skill1002</t>
+  </si>
+  <si>
+    <t>闪现</t>
+  </si>
+  <si>
+    <t>向所指示方向闪现</t>
+  </si>
+  <si>
+    <t>skill1003</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>向周围产生一次爆炸，并伤害</t>
+  </si>
+  <si>
+    <t>skill1004</t>
+  </si>
+  <si>
+    <t>firework</t>
+  </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>发出一个火球并造成伤害</t>
+  </si>
+  <si>
+    <t>skill1005</t>
+  </si>
+  <si>
+    <t>frameBall</t>
+  </si>
+  <si>
+    <t>陨石术</t>
+  </si>
+  <si>
+    <t>向目标位置砸下一个火球，伤害并减速</t>
+  </si>
+  <si>
+    <t>skill1006</t>
+  </si>
+  <si>
+    <t>1002|1002|1001</t>
+  </si>
+  <si>
+    <t>fallStone</t>
+  </si>
+  <si>
+    <t>冰球术</t>
+  </si>
+  <si>
+    <t>向四周发射出冰球，造成减速</t>
+  </si>
+  <si>
+    <t>skill1007</t>
+  </si>
+  <si>
+    <t>iceBall</t>
+  </si>
+  <si>
+    <t>音速</t>
+  </si>
+  <si>
+    <t>向周围产生音波，造成伤害</t>
+  </si>
+  <si>
+    <t>skill1008</t>
+  </si>
+  <si>
+    <t>shockWave</t>
+  </si>
+  <si>
     <t>冰冻</t>
   </si>
   <si>
@@ -183,39 +264,6 @@
   </si>
   <si>
     <t>frozon</t>
-  </si>
-  <si>
-    <t>后撤</t>
-  </si>
-  <si>
-    <t>后撤5米</t>
-  </si>
-  <si>
-    <t>skill1002</t>
-  </si>
-  <si>
-    <t>闪现</t>
-  </si>
-  <si>
-    <t>向所指示方向闪现</t>
-  </si>
-  <si>
-    <t>skill1003</t>
-  </si>
-  <si>
-    <t>爆炸</t>
-  </si>
-  <si>
-    <t>向周围产生一次爆炸，并伤害</t>
-  </si>
-  <si>
-    <t>skill1004</t>
-  </si>
-  <si>
-    <t>1002|1002</t>
-  </si>
-  <si>
-    <t>firework</t>
   </si>
 </sst>
 </file>
@@ -223,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -238,7 +286,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,9 +331,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,25 +368,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,60 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,20 +429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -386,11 +439,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -401,13 +449,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,169 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,9 +645,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,21 +707,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,26 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A7" sqref="A7:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
@@ -1355,28 +1403,28 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1384,28 +1432,28 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1425,81 +1473,242 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>1004</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
       <c r="E7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
       </c>
       <c r="L7" t="s">
         <v>29</v>
       </c>
       <c r="M7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1006</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1003</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
